--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Voltage 1</t>
+    <t>Ampe 1</t>
   </si>
   <si>
     <t>Ampe 2</t>
@@ -376,10 +376,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.49</v>
+        <v>36.85</v>
       </c>
       <c r="C2">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -387,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.38</v>
+        <v>3.6</v>
       </c>
       <c r="C3">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -398,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.28</v>
+        <v>1.97</v>
       </c>
       <c r="C4">
-        <v>0.23</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.17</v>
+        <v>31.04</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -420,10 +420,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.28</v>
+        <v>1.33</v>
       </c>
       <c r="C6">
-        <v>0.03</v>
+        <v>26.84</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,10 +19,10 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Ampe 1</t>
+    <t>Hiệu điện thế (V)</t>
   </si>
   <si>
-    <t>Ampe 2</t>
+    <t>Khoảng cách (cm)</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,10 +376,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36.85</v>
+        <v>1.07</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -387,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.6</v>
+        <v>2.18</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -398,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.97</v>
+        <v>2.97</v>
       </c>
       <c r="C4">
-        <v>9.390000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -409,10 +409,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.97</v>
       </c>
       <c r="C5">
-        <v>31.04</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -420,10 +420,21 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.33</v>
+        <v>9.08</v>
       </c>
       <c r="C6">
-        <v>26.84</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>37.53</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,10 +19,10 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Hiệu điện thế (V)</t>
+    <t>Hiệu điện thế Uc (V)</t>
   </si>
   <si>
-    <t>Khoảng cách (cm)</t>
+    <t>Thời gian (s)</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,10 +376,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.07</v>
+        <v>17.39</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -387,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.18</v>
+        <v>7.02</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -398,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.97</v>
+        <v>4.81</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -409,10 +409,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.97</v>
+        <v>3.65</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -420,10 +420,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9.08</v>
+        <v>3.02</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -431,10 +431,296 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>37.53</v>
+        <v>2.55</v>
       </c>
       <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2.23</v>
+      </c>
+      <c r="C8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.02</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.91</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.75</v>
+      </c>
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.65</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.49</v>
+      </c>
+      <c r="C13">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.33</v>
+      </c>
+      <c r="C14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.23</v>
+      </c>
+      <c r="C15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1.17</v>
+      </c>
+      <c r="C16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
         <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
